--- a/biology/Zoologie/Drosophila_persimilis/Drosophila_persimilis.xlsx
+++ b/biology/Zoologie/Drosophila_persimilis/Drosophila_persimilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drosophila persimilis est une espèce d'insectes diptères de la famille des Drosophilidae. Cette mouche appartient au même sous-groupe du genre Drosophila que Drosophila melanogaster. 
-Le génome de Drosophila persimilis est entièrement séquencé[1]et les informations relatives à cet organisme sont compilées dans FlyBase[2].
+Le génome de Drosophila persimilis est entièrement séquencéet les informations relatives à cet organisme sont compilées dans FlyBase.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dobzhansky &amp; Epling, 1944 : Contributions to the genetics, taxonomy, and ecology of Drosophila pseudo-obscura and its relatives, i. Taxonomy, geographic distribution, and ecology of Drosophila pseudo-obscura and its relatives. Publications of the Carnegie Institution, n. 554 p. 1-40.</t>
         </is>
